--- a/data/raw/Hofman2000_anchors.xlsx
+++ b/data/raw/Hofman2000_anchors.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\capital_stock_paper\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC95F9C-559B-4C56-814E-46447EB07A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D472F-23B8-41FF-995F-459C13B4B6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="21504" windowHeight="11232" xr2:uid="{CDA06AD4-7D65-4861-B912-F2449EFD4688}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{CDA06AD4-7D65-4861-B912-F2449EFD4688}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hofman_2000_1950 anchors" sheetId="1" r:id="rId1"/>
+    <sheet name="Hofman_2000_1950_anchors_Kg" sheetId="1" r:id="rId1"/>
+    <sheet name="Hofman_2000_1950_anchors_Kn" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -470,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE3C5A-DAEE-46F0-8D9A-2EA49421E36C}">
-  <dimension ref="B1:K7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,195 +487,210 @@
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+      <c r="B2">
+        <v>1980</v>
+      </c>
+      <c r="C2">
+        <v>1.74500643303491E-6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>222280</v>
+      </c>
+      <c r="F2">
+        <v>1169899</v>
+      </c>
+      <c r="G2">
+        <v>573931</v>
+      </c>
+      <c r="H2">
+        <v>595968</v>
+      </c>
+      <c r="I2">
+        <v>1392179</v>
+      </c>
+      <c r="J2">
+        <v>796211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1950</v>
+      </c>
+      <c r="B3">
+        <v>2003</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>12738.06192298164</v>
+      </c>
+      <c r="F3">
+        <v>67042.675479729616</v>
+      </c>
+      <c r="G3">
+        <v>32889.907402909739</v>
+      </c>
+      <c r="H3">
+        <v>34152.768076819877</v>
+      </c>
+      <c r="I3">
+        <v>79780.737402711253</v>
+      </c>
+      <c r="J3">
+        <v>45627.969325891376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306F1FB5-290C-46F2-A896-E4014F8F6AE1}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1950</v>
+      </c>
       <c r="B2">
+        <v>1980</v>
+      </c>
+      <c r="C2">
+        <v>1.74500643303491E-6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>134211</v>
+      </c>
+      <c r="F2">
+        <v>810218</v>
+      </c>
+      <c r="G2">
+        <v>338004</v>
+      </c>
+      <c r="H2">
+        <v>390421</v>
+      </c>
+      <c r="I2">
+        <v>862635</v>
+      </c>
+      <c r="J2">
+        <v>472214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1950</v>
       </c>
-      <c r="C2">
-        <v>1980</v>
-      </c>
-      <c r="D2">
-        <v>1.74500643303491E-6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>222280</v>
-      </c>
-      <c r="G2">
-        <v>1169899</v>
-      </c>
-      <c r="H2">
-        <v>573931</v>
-      </c>
-      <c r="I2">
-        <v>595968</v>
-      </c>
-      <c r="J2">
-        <v>1392179</v>
-      </c>
-      <c r="K2">
-        <v>796211</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1950</v>
+        <v>2003</v>
       </c>
       <c r="C3">
-        <v>2003</v>
-      </c>
-      <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3">
+        <v>7691.146431281667</v>
+      </c>
       <c r="F3">
-        <v>12738.06192298164</v>
+        <v>46430.659776472639</v>
       </c>
       <c r="G3">
-        <v>67042.675479729616</v>
+        <v>19369.785325784986</v>
       </c>
       <c r="H3">
-        <v>32889.907402909739</v>
+        <v>22373.613793559543</v>
       </c>
       <c r="I3">
-        <v>34152.768076819877</v>
+        <v>49434.488244247201</v>
       </c>
       <c r="J3">
-        <v>79780.737402711253</v>
-      </c>
-      <c r="K3">
-        <v>45627.969325891376</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1950</v>
-      </c>
-      <c r="C6">
-        <v>1980</v>
-      </c>
-      <c r="D6">
-        <v>1.74500643303491E-6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>134211</v>
-      </c>
-      <c r="G6">
-        <v>810218</v>
-      </c>
-      <c r="H6">
-        <v>338004</v>
-      </c>
-      <c r="I6">
-        <v>390421</v>
-      </c>
-      <c r="J6">
-        <v>862635</v>
-      </c>
-      <c r="K6">
-        <v>472214</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1950</v>
-      </c>
-      <c r="C7">
-        <v>2003</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>7691.146431281667</v>
-      </c>
-      <c r="G7">
-        <v>46430.659776472639</v>
-      </c>
-      <c r="H7">
-        <v>19369.785325784986</v>
-      </c>
-      <c r="I7">
-        <v>22373.613793559543</v>
-      </c>
-      <c r="J7">
-        <v>49434.488244247201</v>
-      </c>
-      <c r="K7">
         <v>27060.874450687661</v>
       </c>
     </row>
